--- a/results/old_data_oversampled_result.xlsx
+++ b/results/old_data_oversampled_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LTC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LTC" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,13 +517,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9612676056338029</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9680851063829787</v>
+        <v>0.9645390070921985</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9646643109540636</v>
+        <v>0.9611307420494699</v>
       </c>
       <c r="E8" t="n">
         <v>282</v>
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9825783972125436</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9912126537785589</v>
+        <v>0.9947089947089947</v>
       </c>
       <c r="E9" t="n">
         <v>282</v>
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9893992932862191</v>
       </c>
       <c r="C10" t="n">
         <v>0.9893992932862191</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9876543209876544</v>
+        <v>0.9893992932862191</v>
       </c>
       <c r="E10" t="n">
         <v>283</v>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9359430604982206</v>
+        <v>0.9212328767123288</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9326241134751773</v>
+        <v>0.9539007092198581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9342806394316162</v>
+        <v>0.9372822299651568</v>
       </c>
       <c r="E11" t="n">
         <v>282</v>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.920265780730897</v>
+        <v>0.9273927392739274</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9822695035460993</v>
+        <v>0.9964539007092199</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9502572898799314</v>
+        <v>0.9606837606837607</v>
       </c>
       <c r="E12" t="n">
         <v>282</v>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8885350318471338</v>
+        <v>0.8971061093247589</v>
       </c>
       <c r="C13" t="n">
         <v>0.9858657243816255</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9346733668341708</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="E13" t="n">
         <v>283</v>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.958904109589041</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9929078014184397</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="D14" t="n">
-        <v>0.975609756097561</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="E14" t="n">
         <v>282</v>
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9293680297397769</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8865248226950354</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9074410163339383</v>
+        <v>0.9010989010989012</v>
       </c>
       <c r="E15" t="n">
         <v>282</v>
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8660287081339713</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.6418439716312057</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7228915662650603</v>
+        <v>0.7372708757637475</v>
       </c>
       <c r="E16" t="n">
         <v>282</v>
@@ -684,39 +684,39 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Task Progress</t>
+          <t>Solution Usage</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.956081081081081</v>
+        <v>0.935374149659864</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.975177304964539</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9775474956822107</v>
+        <v>0.9548611111111112</v>
       </c>
       <c r="E17" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>Task Progress</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9401408450704225</v>
+        <v>0.9433333333333334</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9468085106382979</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9434628975265018</v>
+        <v>0.9708404802744426</v>
       </c>
       <c r="E18" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19">
@@ -729,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9893617021276596</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9946524064171123</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E19" t="n">
         <v>282</v>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9455623799660926</v>
+        <v>0.9479915686237218</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9471245571000273</v>
+        <v>0.9490324339056964</v>
       </c>
       <c r="D20" t="n">
-        <v>0.944967547636039</v>
+        <v>0.9467660796585684</v>
       </c>
       <c r="E20" t="n">
         <v>3669</v>
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9894736842105263</v>
+        <v>0.9964664310954063</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9947089947089947</v>
+        <v>0.9982300884955753</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.958041958041958</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9716312056737588</v>
+        <v>0.975177304964539</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9647887323943661</v>
+        <v>0.9683098591549296</v>
       </c>
       <c r="E29" t="n">
         <v>282</v>
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9928057553956835</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9858156028368794</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9857142857142858</v>
+        <v>0.9893238434163701</v>
       </c>
       <c r="E31" t="n">
         <v>282</v>
@@ -898,13 +898,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.951048951048951</v>
+        <v>0.9340277777777778</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9611307420494699</v>
+        <v>0.950530035335689</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9560632688927944</v>
+        <v>0.9422066549912433</v>
       </c>
       <c r="E32" t="n">
         <v>283</v>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9331103678929766</v>
+        <v>0.9245901639344263</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9858657243816255</v>
+        <v>0.9964664310954063</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9587628865979383</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="E33" t="n">
         <v>283</v>
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.886435331230284</v>
+        <v>0.8906752411575563</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9964539007092199</v>
+        <v>0.9822695035460993</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9382303839732888</v>
+        <v>0.9342327150084316</v>
       </c>
       <c r="E34" t="n">
         <v>282</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9556313993174061</v>
+        <v>0.9488054607508533</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9929078014184397</v>
+        <v>0.9858156028368794</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9739130434782608</v>
+        <v>0.9669565217391304</v>
       </c>
       <c r="E35" t="n">
         <v>282</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.952755905511811</v>
+        <v>0.9649805447470817</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8581560283687943</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9029850746268657</v>
+        <v>0.9202226345083488</v>
       </c>
       <c r="E36" t="n">
         <v>282</v>
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8803827751196173</v>
+        <v>0.861904761904762</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.6418439716312057</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7494908350305499</v>
+        <v>0.7357723577235772</v>
       </c>
       <c r="E37" t="n">
         <v>282</v>
@@ -1008,17 +1008,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Task Progress</t>
+          <t>Solution Usage</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9368770764119602</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0.9468085106382979</v>
       </c>
       <c r="D38" t="n">
-        <v>0.967409948542024</v>
+        <v>0.9368421052631578</v>
       </c>
       <c r="E38" t="n">
         <v>282</v>
@@ -1027,17 +1027,17 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>Task Progress</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.935374149659864</v>
+        <v>0.9215686274509803</v>
       </c>
       <c r="C39" t="n">
-        <v>0.975177304964539</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9548611111111112</v>
+        <v>0.9591836734693878</v>
       </c>
       <c r="E39" t="n">
         <v>282</v>
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9858156028368794</v>
+        <v>0.9855595667870036</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9823321554770318</v>
+        <v>0.9646643109540636</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9840707964601769</v>
+        <v>0.975</v>
       </c>
       <c r="E40" t="n">
         <v>283</v>
@@ -1069,13 +1069,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9497922833612209</v>
+        <v>0.9461193718223705</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9503952030526029</v>
+        <v>0.946852003270646</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9481462669423638</v>
+        <v>0.9446402863772001</v>
       </c>
       <c r="E41" t="n">
         <v>3669</v>
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.974910394265233</v>
+        <v>0.950530035335689</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9611307420494699</v>
+        <v>0.950530035335689</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9679715302491102</v>
+        <v>0.950530035335689</v>
       </c>
       <c r="E50" t="n">
         <v>283</v>
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.9753521126760564</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9858156028368794</v>
+        <v>0.9822695035460993</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9823321554770318</v>
+        <v>0.9787985865724382</v>
       </c>
       <c r="E52" t="n">
         <v>282</v>
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9254237288135593</v>
+        <v>0.9246575342465754</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9680851063829787</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9462738301559792</v>
+        <v>0.9407665505226481</v>
       </c>
       <c r="E53" t="n">
         <v>282</v>
@@ -1241,13 +1241,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9893617021276596</v>
+        <v>0.9964539007092199</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9637305699481866</v>
+        <v>0.9656357388316151</v>
       </c>
       <c r="E54" t="n">
         <v>282</v>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8738170347003155</v>
+        <v>0.8584615384615385</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9822695035460993</v>
+        <v>0.9893617021276596</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9248747913188647</v>
+        <v>0.9192751235584843</v>
       </c>
       <c r="E55" t="n">
         <v>282</v>
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.952054794520548</v>
       </c>
       <c r="C56" t="n">
-        <v>0.975177304964539</v>
+        <v>0.9858156028368794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9683098591549296</v>
+        <v>0.9686411149825784</v>
       </c>
       <c r="E56" t="n">
         <v>282</v>
@@ -1298,13 +1298,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9446494464944649</v>
+        <v>0.9618320610687023</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9045936395759717</v>
+        <v>0.8904593639575972</v>
       </c>
       <c r="D57" t="n">
-        <v>0.924187725631769</v>
+        <v>0.9247706422018348</v>
       </c>
       <c r="E57" t="n">
         <v>283</v>
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.914572864321608</v>
+        <v>0.900990099009901</v>
       </c>
       <c r="C58" t="n">
         <v>0.6453900709219859</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.7520661157024794</v>
       </c>
       <c r="E58" t="n">
         <v>282</v>
@@ -1332,17 +1332,17 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Task Progress</t>
+          <t>Solution Usage</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9245901639344263</v>
+        <v>0.9293286219081273</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0.9326241134751773</v>
       </c>
       <c r="D59" t="n">
-        <v>0.960817717206133</v>
+        <v>0.9309734513274336</v>
       </c>
       <c r="E59" t="n">
         <v>282</v>
@@ -1351,17 +1351,17 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>Task Progress</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.931740614334471</v>
+        <v>0.9276315789473685</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9680851063829787</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9495652173913044</v>
+        <v>0.962457337883959</v>
       </c>
       <c r="E60" t="n">
         <v>282</v>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9822695035460993</v>
+        <v>0.975177304964539</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9910554561717353</v>
+        <v>0.985663082437276</v>
       </c>
       <c r="E61" t="n">
         <v>282</v>
@@ -1393,13 +1393,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9512469015016076</v>
+        <v>0.9469693591213095</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9509403107113655</v>
+        <v>0.9465794494412646</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9487898517524832</v>
+        <v>0.9444581955333349</v>
       </c>
       <c r="E62" t="n">
         <v>3669</v>
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9894736842105263</v>
+        <v>0.9964664310954063</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9947089947089947</v>
+        <v>0.9982300884955753</v>
       </c>
       <c r="E70" t="n">
         <v>282</v>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9537366548042705</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9503546099290781</v>
+        <v>0.9680851063829787</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9520426287744228</v>
+        <v>0.9595782073813709</v>
       </c>
       <c r="E71" t="n">
         <v>282</v>
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="B72" t="n">
+        <v>0.9860627177700348</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
         <v>0.9929824561403509</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9964788732394366</v>
       </c>
       <c r="E72" t="n">
         <v>283</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9753521126760564</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9929078014184397</v>
+        <v>0.9822695035460993</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9841827768014059</v>
+        <v>0.9787985865724382</v>
       </c>
       <c r="E73" t="n">
         <v>282</v>
@@ -1546,13 +1546,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.956989247311828</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9468085106382979</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9518716577540107</v>
+        <v>0.9395017793594306</v>
       </c>
       <c r="E74" t="n">
         <v>282</v>
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9550173010380623</v>
+        <v>0.9461279461279462</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9964539007092199</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9667250437828371</v>
+        <v>0.9706390328151987</v>
       </c>
       <c r="E75" t="n">
         <v>282</v>
@@ -1584,13 +1584,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.8580246913580247</v>
+        <v>0.86875</v>
       </c>
       <c r="C76" t="n">
         <v>0.9858156028368794</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9174917491749176</v>
+        <v>0.9235880398671096</v>
       </c>
       <c r="E76" t="n">
         <v>282</v>
@@ -1603,13 +1603,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.965034965034965</v>
+        <v>0.9822064056939501</v>
       </c>
       <c r="C77" t="n">
         <v>0.9752650176678446</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9701230228471002</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="E77" t="n">
         <v>283</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9433962264150944</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8865248226950354</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9140767824497257</v>
+        <v>0.9084249084249085</v>
       </c>
       <c r="E78" t="n">
         <v>282</v>
@@ -1641,13 +1641,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9004524886877828</v>
+        <v>0.8986175115207373</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7056737588652482</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7912524850894631</v>
+        <v>0.781563126252505</v>
       </c>
       <c r="E79" t="n">
         <v>282</v>
@@ -1656,17 +1656,17 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Task Progress</t>
+          <t>Solution Usage</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9431438127090301</v>
+        <v>0.9340277777777778</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0.9539007092198581</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9707401032702238</v>
+        <v>0.943859649122807</v>
       </c>
       <c r="E80" t="n">
         <v>282</v>
@@ -1675,17 +1675,17 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>Task Progress</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.928082191780822</v>
+        <v>0.9276315789473685</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9609929078014184</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9442508710801395</v>
+        <v>0.962457337883959</v>
       </c>
       <c r="E81" t="n">
         <v>282</v>
@@ -1698,13 +1698,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9890909090909091</v>
+        <v>0.9891304347826086</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9645390070921985</v>
+        <v>0.9680851063829787</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9766606822262118</v>
+        <v>0.9784946236559139</v>
       </c>
       <c r="E82" t="n">
         <v>282</v>
@@ -1717,13 +1717,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9500953418486144</v>
+        <v>0.9490840074099797</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9498364231188658</v>
+        <v>0.9490185387131952</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9485270995567538</v>
+        <v>0.9474702659772021</v>
       </c>
       <c r="E83" t="n">
         <v>3668</v>
@@ -1813,13 +1813,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9680851063829787</v>
+        <v>0.9685314685314685</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9680851063829787</v>
+        <v>0.9822695035460993</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9680851063829787</v>
+        <v>0.9753521126760563</v>
       </c>
       <c r="E92" t="n">
         <v>282</v>
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9825783972125436</v>
+        <v>0.9929577464788732</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9912126537785589</v>
+        <v>0.9964664310954063</v>
       </c>
       <c r="E93" t="n">
         <v>282</v>
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9753521126760564</v>
+        <v>0.9788732394366197</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9822695035460993</v>
+        <v>0.9858156028368794</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9787985865724382</v>
+        <v>0.9823321554770318</v>
       </c>
       <c r="E94" t="n">
         <v>282</v>
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.925531914893617</v>
+        <v>0.9372822299651568</v>
       </c>
       <c r="C95" t="n">
-        <v>0.925531914893617</v>
+        <v>0.9539007092198581</v>
       </c>
       <c r="D95" t="n">
-        <v>0.925531914893617</v>
+        <v>0.9455184534270651</v>
       </c>
       <c r="E95" t="n">
         <v>282</v>
@@ -1889,13 +1889,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9355932203389831</v>
+        <v>0.9391891891891891</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9858156028368794</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9566724436741768</v>
+        <v>0.9619377162629756</v>
       </c>
       <c r="E96" t="n">
         <v>282</v>
@@ -1908,13 +1908,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.8974358974358975</v>
+        <v>0.9172185430463576</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9929078014184397</v>
+        <v>0.9822695035460993</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9427609427609428</v>
+        <v>0.9486301369863015</v>
       </c>
       <c r="E97" t="n">
         <v>282</v>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.972027972027972</v>
+        <v>0.9721254355400697</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9858156028368794</v>
+        <v>0.9893617021276596</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.9806678383128296</v>
       </c>
       <c r="E98" t="n">
         <v>282</v>
@@ -1946,13 +1946,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9335793357933579</v>
+        <v>0.9356060606060606</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8971631205673759</v>
+        <v>0.875886524822695</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9150090415913201</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="E99" t="n">
         <v>282</v>
@@ -1965,13 +1965,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.863013698630137</v>
+        <v>0.8981481481481481</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6678445229681979</v>
+        <v>0.6855123674911661</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7529880478087648</v>
+        <v>0.7775551102204409</v>
       </c>
       <c r="E100" t="n">
         <v>283</v>
@@ -1980,39 +1980,39 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Task Progress</t>
+          <t>Solution Usage</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.962457337883959</v>
+        <v>0.8980263157894737</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0.9646643109540636</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9808695652173912</v>
+        <v>0.93015332197615</v>
       </c>
       <c r="E101" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>Task Progress</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.8966666666666666</v>
+        <v>0.9463087248322147</v>
       </c>
       <c r="C102" t="n">
-        <v>0.950530035335689</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9228130360205832</v>
+        <v>0.9724137931034482</v>
       </c>
       <c r="E102" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103">
@@ -2025,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.975177304964539</v>
+        <v>0.9858156028368794</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9874326750448834</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="E103" t="n">
         <v>282</v>
@@ -2041,13 +2041,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.947064991403759</v>
+        <v>0.9526061878693788</v>
       </c>
       <c r="C104" t="n">
-        <v>0.947928026172301</v>
+        <v>0.9531079607415486</v>
       </c>
       <c r="D104" t="n">
-        <v>0.946175334373291</v>
+        <v>0.9513811105426394</v>
       </c>
       <c r="E104" t="n">
         <v>3668</v>
